--- a/US/input.xlsx
+++ b/US/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1UMTC\RA\US\z_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1UMTC\RA\US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425296FC-4FDA-45C7-B884-3A60A30F7280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F00B259-C972-4CE0-8F0C-8BB9D6E412D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7822" yWindow="165" windowWidth="14558" windowHeight="12278" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4133" yWindow="210" windowWidth="14392" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="16">
   <si>
     <t>Sector</t>
   </si>
@@ -36,67 +36,43 @@
     <t>CROPS</t>
   </si>
   <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Data_item</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Prod_unit</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>SURVEY</t>
+  </si>
+  <si>
+    <t>WHEAT</t>
+  </si>
+  <si>
     <t>FIELD CROPS</t>
   </si>
   <si>
-    <t>VEGETABLES</t>
-  </si>
-  <si>
-    <t>FRUIT &amp; TREE NUTS</t>
-  </si>
-  <si>
-    <t>CENSUS</t>
-  </si>
-  <si>
-    <t>SURVEY</t>
-  </si>
-  <si>
-    <t>Commodity</t>
-  </si>
-  <si>
-    <t>TOMATOES</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Data_item</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Prod_unit</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>BANANAS</t>
-  </si>
-  <si>
-    <t>MILLET</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>WHEAT</t>
-  </si>
-  <si>
-    <t>MILLET, PROSO</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>TOMATOES, IN THE OPEN</t>
+    <t>SPRING, DURUM</t>
   </si>
 </sst>
 </file>
@@ -423,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -440,7 +416,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -449,373 +425,906 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>2002</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>2001</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>2002</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>2003</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>2004</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>2005</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>2006</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>2008</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>2009</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>2010</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>2011</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>2012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I16">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25">
         <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
